--- a/Technologies/Technologies.xlsx
+++ b/Technologies/Technologies.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Portable Ultrasonic Liquid Flow Meter</t>
   </si>
@@ -43,18 +43,12 @@
     <t>Construction</t>
   </si>
   <si>
-    <t>https://www.hydromaxusa.com/satellite-leak-detection</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Sliplining</t>
   </si>
   <si>
     <t>Trenchless Pipe Replacement - Sliplining</t>
   </si>
   <si>
-    <t>Water Leak Detection - Microwave Detection Satellite</t>
-  </si>
-  <si>
     <t>Water Leak Detection - Aboveground Acoustic Detection</t>
   </si>
   <si>
@@ -62,6 +56,9 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pipe_bursting</t>
+  </si>
+  <si>
+    <t>Satellite Leak Detection</t>
   </si>
 </sst>
 </file>
@@ -416,7 +413,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +447,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -461,35 +458,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Technologies/Technologies.xlsx
+++ b/Technologies/Technologies.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Portable Ultrasonic Liquid Flow Meter</t>
   </si>
@@ -58,14 +58,71 @@
     <t>https://en.wikipedia.org/wiki/Pipe_bursting</t>
   </si>
   <si>
-    <t>Satellite Leak Detection</t>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>General Electric</t>
+  </si>
+  <si>
+    <t>Utilis</t>
+  </si>
+  <si>
+    <t>Satellite Spectroscopy Water Leak Detection</t>
+  </si>
+  <si>
+    <t>Airborne Spectroscopy Water Leak Detection</t>
+  </si>
+  <si>
+    <t>Hydromax USA</t>
+  </si>
+  <si>
+    <t>Water Matrix</t>
+  </si>
+  <si>
+    <t>imageairy.com</t>
+  </si>
+  <si>
+    <t>Rezatec</t>
+  </si>
+  <si>
+    <t>WADI</t>
+  </si>
+  <si>
+    <t>ARESYS</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>PT878</t>
+  </si>
+  <si>
+    <t>Pipeminder S</t>
+  </si>
+  <si>
+    <t>Pipeminder T</t>
+  </si>
+  <si>
+    <t>Pipeminder C</t>
+  </si>
+  <si>
+    <t>Wastewater Pipe Pressure Transient Sensor</t>
+  </si>
+  <si>
+    <t>Potable Water Pipe Leak Correlator</t>
+  </si>
+  <si>
+    <t>Potable Water Pipe Pressure Transient Sensor</t>
+  </si>
+  <si>
+    <t>Syrinix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +134,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,14 +164,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,86 +477,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="111.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="111.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:E1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId4"/>
+    <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="C15" r:id="rId6"/>
+    <hyperlink ref="C16" r:id="rId7"/>
+    <hyperlink ref="C17" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>